--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2876664.031827766</v>
+        <v>2980843.66627884</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.45713216103746</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>122.8117974144974</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>165.8717126489661</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.197497466651</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474331</v>
+        <v>328.8991813485228</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.97383429440639</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.908382160449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.544259717136</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>348.9797630351775</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>227.8692960322437</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2299870234505</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>66.09841665934279</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>164.8280908524519</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076471</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>1.619672595757311</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="24">
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>100.736283162477</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3001,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>5.94317878650419</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834638</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3472,16 +3474,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>140.3829797864969</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289448</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>98.9509526216608</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2300.691720830048</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,31 +4430,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218339</v>
@@ -4568,7 +4570,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189672</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>2266.42941827456</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
@@ -4656,7 +4658,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>555.4774356872689</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>386.541252759362</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>386.541252759362</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>238.6281591769689</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>91.73821167905854</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>91.73821167905854</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>91.73821167905854</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218339</v>
@@ -4750,25 +4752,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>1004.259565728816</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271513</v>
+        <v>776.270014830799</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>555.4774356872689</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>2289.269467848841</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890339</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,25 +4871,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,19 +4898,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1415.607200579672</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1160.922712373785</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995249</v>
+        <v>871.505542336824</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>643.5159914388066</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5041,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5285,31 +5287,31 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,31 +5527,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859342</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286662</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358755</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358755</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776362</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278451</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993331</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755756</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310362</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310362</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644063</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231727</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649334</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151423</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775286</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.179738545739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.387159402209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,28 +6460,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6503,10 +6505,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C31" t="n">
-        <v>853.936052826184</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,16 +6688,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276705</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831312</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350971</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227614</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403683</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552482</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,58 +7402,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.35591459056</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118215</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289435</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156521</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156521</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711128</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950415</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445483</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445483</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,64 +7636,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385793</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385793</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.914133601552</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.89058478271</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021997</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398595</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398595</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>220.0860577299014</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>121.3563835367922</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>245.5619442858263</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903267</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>250.5179707280707</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>45.69767948409213</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>113.417682877128</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434114</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>246.1944645373238</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.310863011585866</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168802</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>111.7546635373311</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.11201973523735</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968302</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="15">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.609736506</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365058</v>
@@ -26350,10 +26352,10 @@
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.8081118427</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26457,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-831587.024787539</v>
       </c>
       <c r="C6" t="n">
-        <v>497157.7209400537</v>
+        <v>497157.7209400536</v>
       </c>
       <c r="D6" t="n">
-        <v>497157.7209400536</v>
+        <v>497157.7209400532</v>
       </c>
       <c r="E6" t="n">
-        <v>245932.8099934003</v>
+        <v>245932.8099934006</v>
       </c>
       <c r="F6" t="n">
-        <v>571345.2718007556</v>
+        <v>571345.2718007562</v>
       </c>
       <c r="G6" t="n">
+        <v>571345.271800756</v>
+      </c>
+      <c r="H6" t="n">
         <v>571345.2718007558</v>
       </c>
-      <c r="H6" t="n">
-        <v>571345.2718007556</v>
-      </c>
       <c r="I6" t="n">
-        <v>571345.2718007556</v>
+        <v>571345.2718007558</v>
       </c>
       <c r="J6" t="n">
-        <v>353814.0694034782</v>
+        <v>353814.0694034785</v>
       </c>
       <c r="K6" t="n">
-        <v>571345.2718007556</v>
+        <v>571345.271800756</v>
       </c>
       <c r="L6" t="n">
-        <v>571345.2718007555</v>
+        <v>571345.271800756</v>
       </c>
       <c r="M6" t="n">
-        <v>486290.2438652441</v>
+        <v>486290.2438652442</v>
       </c>
       <c r="N6" t="n">
         <v>571345.2718007558</v>
       </c>
       <c r="O6" t="n">
-        <v>571345.2718007559</v>
+        <v>571345.2718007561</v>
       </c>
       <c r="P6" t="n">
-        <v>571345.2718007556</v>
+        <v>571345.2718007561</v>
       </c>
     </row>
   </sheetData>
@@ -26704,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8157596099701</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>226.4291713029156</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>13.96026753297116</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3514518095182098</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887373</v>
+        <v>53.83466031495777</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>71.37858611543172</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463446</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>20.75133764329149</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>58.34254217336917</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558666</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
     </row>
     <row r="24">
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500298</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,10 +34131,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817599</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663306</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280115</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367793</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2980843.66627884</v>
+        <v>2976831.056264846</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>195.7072339319587</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>122.8117974144974</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.8717126489661</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>73.89415519534784</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.8991813485228</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>111.7032299015042</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.97383429440639</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>51.06561173381984</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>48.42950698091952</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>348.9797630351775</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>227.8692960322437</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206819</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>66.09841665934279</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>164.8280908524519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>40.96105405076471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>59.00369384633011</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>1.619672595757311</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>100.736283162477</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>35.19779014108431</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>5.94317878650419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>185.0663491738889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>140.3829797864969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>124.4121185570315</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>98.9509526216608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3017.631078457519</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2764.100601731356</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2433.037714387785</v>
       </c>
       <c r="W2" t="n">
-        <v>2300.691720830048</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.225962568968</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1537.086630593157</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.7644039315074</v>
+        <v>899.9923811356276</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>899.9923811356276</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>749.8757417232919</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>601.9626481408988</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>455.0727006429884</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>287.3698640177073</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>141.1526772355651</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>1391.09371846696</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X4" t="n">
-        <v>1163.104167568943</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.3115884254127</v>
+        <v>899.9923811356276</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>915.744459651846</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>529.9562070536017</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520486</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250372</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250372</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.42941827456</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4658,7 +4658,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.4774356872689</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C7" t="n">
-        <v>386.541252759362</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>386.541252759362</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>238.6281591769689</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>91.73821167905854</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>91.73821167905854</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>91.73821167905854</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728816</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X7" t="n">
-        <v>776.270014830799</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.4774356872689</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1270.470666346906</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>912.204967740156</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>526.4167151419117</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>115.4308103523041</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.269467848841</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.13013587303</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,19 +4871,19 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
@@ -4898,19 +4898,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.8675266085669</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1415.607200579672</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1160.922712373785</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>871.505542336824</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>643.5159914388066</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5159914388066</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5080,13 +5080,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1910.695003076829</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1656.010514870942</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1366.593344833982</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1138.603793935964</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1878.013763195024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5524,40 +5524,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
         <v>779.6143379232838</v>
@@ -5901,13 +5901,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1686.749820929699</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1397.332650892738</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511906</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>733.4550657171301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>733.4550657171301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,19 +7423,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>301.5721730233224</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>301.5721730233224</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.379442165859</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>220.0860577299014</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>121.3563835367922</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>245.5619442858263</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>250.5179707280707</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>45.69767948409213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>113.417682877128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>246.1944645373238</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>41.11201973523735</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.278159652083936e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="N4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26524,46 +26524,46 @@
         <v>-831587.024787539</v>
       </c>
       <c r="C6" t="n">
-        <v>497157.7209400536</v>
+        <v>497157.7209400535</v>
       </c>
       <c r="D6" t="n">
         <v>497157.7209400532</v>
       </c>
       <c r="E6" t="n">
-        <v>245932.8099934006</v>
+        <v>245585.4307390443</v>
       </c>
       <c r="F6" t="n">
-        <v>571345.2718007562</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="G6" t="n">
-        <v>571345.271800756</v>
+        <v>570997.8925463986</v>
       </c>
       <c r="H6" t="n">
-        <v>571345.2718007558</v>
+        <v>570997.8925463989</v>
       </c>
       <c r="I6" t="n">
-        <v>571345.2718007558</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="J6" t="n">
-        <v>353814.0694034785</v>
+        <v>353466.6901491213</v>
       </c>
       <c r="K6" t="n">
-        <v>571345.271800756</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="L6" t="n">
-        <v>571345.271800756</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="M6" t="n">
-        <v>486290.2438652442</v>
+        <v>485942.8646108871</v>
       </c>
       <c r="N6" t="n">
-        <v>571345.2718007558</v>
+        <v>570997.8925463986</v>
       </c>
       <c r="O6" t="n">
-        <v>571345.2718007561</v>
+        <v>570997.8925463983</v>
       </c>
       <c r="P6" t="n">
-        <v>571345.2718007561</v>
+        <v>570997.8925463989</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26706,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26801,13 +26801,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26965,37 +26965,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.198799748375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>8.210736207661512</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>226.4291713029156</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.96026753297116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>22.45826521449028</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.83466031495777</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>295.1728158402072</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>71.37858611543172</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>235.146226471793</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>362.4922186725339</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20.75133764329149</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>58.34254217336917</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.003878819152886e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421389</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32314,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500298</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33195,7 +33195,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>79.32561221529411</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280115</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2976831.056264846</v>
+        <v>2978591.586567632</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>195.7072339319575</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>195.7072339319587</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>73.89415519534784</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>103.9270196322858</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>111.7032299015042</v>
+        <v>257.3061662477276</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>51.06561173381984</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>48.42950698091952</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>20.29515656310126</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991771</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206819</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.05480806223588</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>59.00369384633011</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>17.48314223074927</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>90.00079239153477</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3017.631078457519</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2764.100601731356</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2433.037714387785</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2080.269059117671</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>899.9923811356276</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>899.9923811356276</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>749.8757417232919</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>601.9626481408988</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>455.0727006429884</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>287.3698640177073</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>141.1526772355651</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1732.487303338661</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1732.487303338661</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1732.487303338661</v>
       </c>
       <c r="V4" t="n">
-        <v>1638.191681214136</v>
+        <v>1732.487303338661</v>
       </c>
       <c r="W4" t="n">
-        <v>1348.774511177175</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="X4" t="n">
-        <v>1120.784960279158</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.9923811356276</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1896.503151925173</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258596</v>
+        <v>1527.540634984761</v>
       </c>
       <c r="D5" t="n">
-        <v>915.744459651846</v>
+        <v>1169.274936378011</v>
       </c>
       <c r="E5" t="n">
-        <v>529.9562070536017</v>
+        <v>783.4866837797663</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4716,25 +4716,25 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,16 +4746,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
         <v>1875.713122094735</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.433183287318</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.470666346906</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>912.204967740156</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>526.4167151419117</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4308103523041</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287318</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4944,37 +4944,37 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5044,10 +5044,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,10 +5281,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5424,25 +5424,25 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.3306680894883</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y22" t="n">
-        <v>1170.979132919728</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362687</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,19 +7423,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>369.499740389278</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>139.469330230033</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>108.2431272522977</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>199.922308096539</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>77.24602870709306</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>32.79125956324884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>69.70496293143174</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
@@ -26343,19 +26343,19 @@
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365052</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26368,22 +26368,22 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.278159652083936e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319413</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319407</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319404</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319404</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.8081118427</v>
-      </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831587.024787539</v>
+        <v>-831587.0247875386</v>
       </c>
       <c r="C6" t="n">
         <v>497157.7209400535</v>
       </c>
       <c r="D6" t="n">
-        <v>497157.7209400532</v>
+        <v>497157.7209400535</v>
       </c>
       <c r="E6" t="n">
-        <v>245585.4307390443</v>
+        <v>245898.0720679652</v>
       </c>
       <c r="F6" t="n">
-        <v>570997.8925463988</v>
+        <v>571310.5338753199</v>
       </c>
       <c r="G6" t="n">
-        <v>570997.8925463986</v>
+        <v>571310.5338753203</v>
       </c>
       <c r="H6" t="n">
-        <v>570997.8925463989</v>
+        <v>571310.5338753199</v>
       </c>
       <c r="I6" t="n">
-        <v>570997.8925463988</v>
+        <v>571310.5338753201</v>
       </c>
       <c r="J6" t="n">
-        <v>353466.6901491213</v>
+        <v>353779.3314780425</v>
       </c>
       <c r="K6" t="n">
-        <v>570997.8925463988</v>
+        <v>571310.5338753201</v>
       </c>
       <c r="L6" t="n">
-        <v>570997.8925463988</v>
+        <v>571310.5338753203</v>
       </c>
       <c r="M6" t="n">
-        <v>485942.8646108871</v>
+        <v>486255.5059398082</v>
       </c>
       <c r="N6" t="n">
-        <v>570997.8925463986</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="O6" t="n">
-        <v>570997.8925463983</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="P6" t="n">
-        <v>570997.8925463989</v>
+        <v>571310.5338753201</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>186.2231361403043</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>8.210736207661512</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.45826521449028</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>85.84200569915609</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>295.1728158402072</v>
+        <v>149.5698794939839</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>235.146226471793</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>362.4922186725339</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>307.4571019070336</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356952</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.003878819152886e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>428.7353800421389</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>297.3936679588056</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
